--- a/Pin_Allocation.xlsx
+++ b/Pin_Allocation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Current Projects\EEE 416\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Current Projects\EEE 416\uP-Trainer-with-STM32f446-microprocessor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BC86C0F-E59F-47AC-A533-5A0152E55971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB02606-C825-4072-B1CC-E8698B6BB18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{33E608E5-39ED-4006-996E-B4FA9B751BB3}"/>
   </bookViews>
@@ -33,13 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="110">
-  <si>
-    <t>Functionality</t>
-  </si>
-  <si>
-    <t>Pin No.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="124">
   <si>
     <t>Speaker</t>
   </si>
@@ -47,9 +41,6 @@
     <t>PA0</t>
   </si>
   <si>
-    <t>Checked</t>
-  </si>
-  <si>
     <t>ADC</t>
   </si>
   <si>
@@ -104,9 +95,6 @@
     <t>C1</t>
   </si>
   <si>
-    <t>checked</t>
-  </si>
-  <si>
     <t>LCD</t>
   </si>
   <si>
@@ -347,9 +335,6 @@
     <t>PA5</t>
   </si>
   <si>
-    <t>Solder both side</t>
-  </si>
-  <si>
     <t>PB9</t>
   </si>
   <si>
@@ -363,13 +348,70 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Alternate Function</t>
+  </si>
+  <si>
+    <t>AF1(TIM2_CH1)</t>
+  </si>
+  <si>
+    <t>AF2 (TIM3_CH4)</t>
+  </si>
+  <si>
+    <t>AF9 (TIM12_CH2)</t>
+  </si>
+  <si>
+    <t>AF9(TIM12_CH1)</t>
+  </si>
+  <si>
+    <t>AF2(TIM3_CH1)</t>
+  </si>
+  <si>
+    <t>AF2(TIM3_CH2)</t>
+  </si>
+  <si>
+    <t>AF1(TIM2_CH2)</t>
+  </si>
+  <si>
+    <t>AF1(TIM2_CH4)</t>
+  </si>
+  <si>
+    <t>AF4(I2C1_SCL)</t>
+  </si>
+  <si>
+    <t>AF4(I2C1_SDA)</t>
+  </si>
+  <si>
+    <t>AF7(USART3_TX)</t>
+  </si>
+  <si>
+    <t>AF8(USART6_RX)</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>AF1 (TIM2_CH1), AF2(TIM5_CH1)</t>
+  </si>
+  <si>
+    <t>AF1(TIM2_CH2), AF2(TIM4_CH4)</t>
+  </si>
+  <si>
+    <t>AF2(TIM3_CH3), AF3(TIM8_CH3)</t>
+  </si>
+  <si>
+    <t>STM32F446RE Pin No.</t>
+  </si>
+  <si>
+    <t>Module Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,22 +428,23 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -423,18 +466,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -458,23 +495,89 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -482,7 +585,59 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -490,6 +645,63 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -497,64 +709,16 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -567,9 +731,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -580,142 +742,109 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1153,581 +1282,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAE96A56-D226-4770-A714-B531D448FCBE}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="36" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="2" t="s">
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="2" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="15" t="s">
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="3">
+        <v>2</v>
+      </c>
+      <c r="G9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="2">
-        <v>1</v>
-      </c>
-      <c r="G8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="2" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="2">
-        <v>2</v>
-      </c>
-      <c r="G9" s="2" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2">
-        <v>3</v>
-      </c>
-      <c r="G10" s="2" t="s">
+      <c r="C11" s="33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="D11" s="30"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="3">
+        <v>4</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="3">
+        <v>5</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="2">
-        <v>4</v>
-      </c>
-      <c r="G11" s="2" t="s">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="15"/>
+      <c r="B13" s="26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="7" t="s">
+      <c r="C13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="D13" s="30"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="3">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="F12" s="2">
-        <v>5</v>
-      </c>
-      <c r="G12" s="2" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="15"/>
+      <c r="B14" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="24"/>
-      <c r="B13" s="7" t="s">
+      <c r="C14" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D14" s="30"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="F13" s="2">
-        <v>6</v>
-      </c>
-      <c r="G13" s="2" t="s">
+      <c r="C15" s="33" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="24"/>
-      <c r="B14" s="7" t="s">
+      <c r="D15" s="30"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="15"/>
+      <c r="B16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C16" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="24"/>
-      <c r="B15" s="7" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="15"/>
+      <c r="B17" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C17" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="19"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="7" t="s">
+      <c r="D17" s="30"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C18" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="19"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="7" t="s">
+      <c r="D18" s="30"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="19"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="7" t="s">
+      <c r="C19" s="9"/>
+      <c r="D19" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="20"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+      <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="17" t="s">
+      <c r="D22" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="17"/>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="C23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="D23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="2" t="s">
+      <c r="D24" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="33"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="2" t="s">
+      <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D25" s="31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="C26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="D26" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C27" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="2" t="s">
+      <c r="D27" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="2" t="s">
+      <c r="D28" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="B29" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="19"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="D29" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="C30" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="D30" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="2" t="s">
+      <c r="C31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D31" s="30"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="K31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="31"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D32" s="30"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="K31" s="14" t="s">
+      <c r="C33" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="2" t="s">
+      <c r="D33" s="30"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C34" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-      <c r="O32" s="14"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="2" t="s">
+      <c r="D34" s="30"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C35" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D33" s="19"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="2" t="s">
+      <c r="D35" s="30"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C36" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="19"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="14"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="2" t="s">
+      <c r="D36" s="30"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C37" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="19"/>
-      <c r="K35" s="14"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="14"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="2" t="s">
+      <c r="D37" s="31"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="B38" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D36" s="19"/>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="2" t="s">
+      <c r="C38" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="D38" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E38" s="19"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="18"/>
+      <c r="B39" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D37" s="19"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A38" s="28" t="s">
+      <c r="C39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="D39" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C38" t="s">
+      <c r="B40" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="13"/>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="2" t="s">
+      <c r="C40" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D40" s="30"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D39" s="22"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A40" s="18" t="s">
+      <c r="C41" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="D41" s="30"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C42" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D40" s="22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="2" t="s">
+      <c r="D42" s="30"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="C41" t="s">
+      <c r="B43" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="22"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="2" t="s">
+      <c r="C43" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D43" s="30"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="32"/>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A43" s="28" t="s">
+      <c r="C44" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="D44" s="30"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C45" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A44" s="28"/>
-      <c r="B44" s="2" t="s">
+      <c r="D45" s="30"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C46" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="19"/>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A45" s="28"/>
-      <c r="B45" s="2" t="s">
+      <c r="D46" s="31"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C45" t="s">
+      <c r="B47" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D45" s="19"/>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A46" s="28"/>
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="9"/>
+      <c r="D47" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C48" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D46" s="19"/>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
+      <c r="D48" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="22"/>
+      <c r="B49" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="C49" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D49" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A48" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" t="s">
-        <v>106</v>
-      </c>
-      <c r="D48" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="27"/>
-      <c r="B49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C49" t="s">
-        <v>108</v>
-      </c>
-      <c r="D49" s="19"/>
-      <c r="E49" t="s">
-        <v>109</v>
-      </c>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="D38:D39"/>
+  <mergeCells count="13">
+    <mergeCell ref="K31:O35"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A11:A18"/>
     <mergeCell ref="A48:A49"/>
@@ -1735,23 +2039,9 @@
     <mergeCell ref="A38:A39"/>
     <mergeCell ref="A40:A42"/>
     <mergeCell ref="A43:A46"/>
-    <mergeCell ref="D31:D37"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D25:D28"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="D22:D24"/>
-    <mergeCell ref="K31:O35"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="D11:D18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B10 B19:B24 B29:B30 B38:B1048576">
+  <conditionalFormatting sqref="B2:B10 B19:B24 B29:B30 B38:B1048576">
     <cfRule type="duplicateValues" dxfId="11" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:C25 C26:C28 C31:C37">
@@ -1788,10 +2078,31 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8aaf46a-a9e4-41de-b3bc-985c2fd158ea">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="500a988f-0eaa-4ec2-b463-a662c57d234b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AE2726C0C37DEC4EAB4011D673B0416F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e880ed05b34811a84749216fa1f4bcbd">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d8aaf46a-a9e4-41de-b3bc-985c2fd158ea" xmlns:ns3="500a988f-0eaa-4ec2-b463-a662c57d234b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2465795eb75bcb55bea034d744118473" ns2:_="" ns3:_="">
     <xsd:import namespace="d8aaf46a-a9e4-41de-b3bc-985c2fd158ea"/>
@@ -1968,27 +2279,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d8aaf46a-a9e4-41de-b3bc-985c2fd158ea">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="500a988f-0eaa-4ec2-b463-a662c57d234b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6750A2A-B383-40EB-98F7-524672D32D3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C64F0AB8-B580-4018-9F5D-329CA6E3D1B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d8aaf46a-a9e4-41de-b3bc-985c2fd158ea"/>
+    <ds:schemaRef ds:uri="500a988f-0eaa-4ec2-b463-a662c57d234b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30002F67-CCD6-4C73-BA27-45C0A475EA4F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2005,23 +2315,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C64F0AB8-B580-4018-9F5D-329CA6E3D1B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d8aaf46a-a9e4-41de-b3bc-985c2fd158ea"/>
-    <ds:schemaRef ds:uri="500a988f-0eaa-4ec2-b463-a662c57d234b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6750A2A-B383-40EB-98F7-524672D32D3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>